--- a/ECON9101_MCQ_GRADED_07062024-reweighted-stats.xlsx
+++ b/ECON9101_MCQ_GRADED_07062024-reweighted-stats.xlsx
@@ -477,7 +477,7 @@
         <v>4.4</v>
       </c>
       <c r="D2">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E2">
         <v>4.7</v>
@@ -489,7 +489,7 @@
         <v>2.8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -501,10 +501,10 @@
         <v>4.3</v>
       </c>
       <c r="L2">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="M2">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -571,7 +571,7 @@
         <v>2.5</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
         <v>0.8</v>
@@ -583,10 +583,10 @@
         <v>2.7</v>
       </c>
       <c r="L4">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="M4">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -665,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
